--- a/biology/Médecine/Carol_Hathaway/Carol_Hathaway.xlsx
+++ b/biology/Médecine/Carol_Hathaway/Carol_Hathaway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carol Hathaway est une personne de fiction, de la série Urgences, interprétée par Julianna Margulies et doublée par Hélène Chanson en version française.
@@ -512,7 +524,9 @@
           <t>Biographie de fiction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carol Hathaway est l'infirmière en chef du Cook County.
 Elle a une vie amoureuse mouvementée, largement occupée par sa relation compliquée avec Doug Ross (joué par George Clooney), pédiatre dans ce même hôpital. Dans l'épisode pilote de la série, elle est admise aux urgences pour une tentative de suicide après une rupture assez douloureuse avec lui. Après avoir surmonté cette étape de sa vie, elle commence une nouvelle histoire d'amour avec le Dr. Taglieri. Néanmoins, le jour du mariage, ce dernier décide de tout annuler, sentant que Carol ne l'aime pas autant qu'il l'espérait. 
